--- a/TableOrigin/101_GlobalValue.xlsx
+++ b/TableOrigin/101_GlobalValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672B05A6-07C5-4767-837A-7A2697EB9A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE2F96-21CB-40FC-9BFB-4AD33033B4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="1230" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>스테이지 레벨업 간격(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 점프 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 점프 중력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -487,10 +495,32 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1">
+        <v>10000005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10000006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TableOrigin/101_GlobalValue.xlsx
+++ b/TableOrigin/101_GlobalValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE2F96-21CB-40FC-9BFB-4AD33033B4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C64AB8-2089-4327-AC2A-A50D4177B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10545" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 최대 증가 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 레벨업 간격(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,22 @@
   </si>
   <si>
     <t>플레이어 캐릭터 점프 중력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 점프 최대 높이(y축)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐릭터 점프 중력(스테이지 레벨업 당 증가량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 레벨당 애니메이션 증가속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 최대 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,16 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,7 +483,7 @@
         <v>10000003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -485,7 +497,7 @@
         <v>10000004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -499,13 +511,13 @@
         <v>10000005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -513,13 +525,55 @@
         <v>10000006</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10000007</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10000008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10000009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/101_GlobalValue.xlsx
+++ b/TableOrigin/101_GlobalValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C64AB8-2089-4327-AC2A-A50D4177B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA8F98-B915-464A-AE15-B927E1866DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10545" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>애니메이션 최대 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 피격 후 무적시간(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,6 +580,20 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10000010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TableOrigin/101_GlobalValue.xlsx
+++ b/TableOrigin/101_GlobalValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA8F98-B915-464A-AE15-B927E1866DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68439CED-930F-4060-A2FC-BF0646A4716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="960" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="285" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 기본 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 레벨당 증가 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 레벨업 간격(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,7 +407,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,28 +446,24 @@
       <c r="A3" s="1">
         <v>10000001</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10000002</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -487,7 +471,7 @@
         <v>10000003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -500,14 +484,12 @@
       <c r="A6" s="1">
         <v>10000004</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,7 +497,7 @@
         <v>10000005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -529,7 +511,7 @@
         <v>10000006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -543,7 +525,7 @@
         <v>10000007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -557,7 +539,7 @@
         <v>10000008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -571,7 +553,7 @@
         <v>10000009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -585,7 +567,7 @@
         <v>10000010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>

--- a/TableOrigin/101_GlobalValue.xlsx
+++ b/TableOrigin/101_GlobalValue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68439CED-930F-4060-A2FC-BF0646A4716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3378AAD-5FE4-4454-959B-4F6B76A9F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="285" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="1215" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>플레이어 피격 후 무적시간(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 시간 점수 증가 간격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -446,12 +450,14 @@
       <c r="A3" s="1">
         <v>10000001</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,6 +580,2503 @@
       </c>
       <c r="D12" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10000011</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10000012</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10000013</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10000014</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>10000015</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>10000016</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>10000017</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>10000018</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>10000019</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10000020</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>10000021</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>10000022</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10000023</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>10000024</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>10000025</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>10000026</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>10000027</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>10000028</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10000029</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>10000030</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>10000031</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>10000032</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>10000033</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>10000034</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>10000035</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>10000036</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>10000037</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>10000038</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>10000039</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>10000040</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>10000041</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>10000042</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>10000043</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>10000044</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>10000045</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>10000046</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>10000047</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>10000048</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>10000049</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>10000050</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>10000051</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>10000052</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>10000053</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>10000054</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>10000055</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>10000056</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>10000057</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>10000058</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>10000059</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>10000060</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>10000061</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>10000062</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>10000063</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>10000064</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>10000065</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>10000066</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>10000067</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>10000068</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>10000069</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>10000070</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>10000071</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>10000072</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>10000073</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>10000074</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>10000075</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>10000076</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>10000077</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>10000078</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>10000079</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>10000080</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>10000081</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>10000082</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>10000083</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>10000084</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>10000085</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>10000086</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>10000087</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>10000088</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>10000089</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>10000090</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>10000091</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>10000092</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>10000093</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>10000094</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>10000095</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>10000096</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>10000097</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>10000098</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>10000099</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>10000100</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>10000101</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>10000102</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>10000103</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>10000104</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>10000105</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>10000106</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>10000107</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>10000108</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>10000109</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>10000110</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>10000111</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>10000112</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>10000113</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>10000114</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>10000115</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>10000116</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>10000117</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>10000118</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>10000119</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>10000120</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>10000121</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>10000122</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>10000123</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>10000124</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>10000125</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>10000126</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>10000127</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>10000128</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>10000129</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>10000130</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>10000131</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>10000132</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>10000133</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>10000134</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>10000135</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>10000136</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>10000137</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>10000138</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>10000139</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>10000140</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>10000141</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>10000142</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>10000143</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>10000144</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>10000145</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>10000146</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>10000147</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>10000148</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>10000149</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>10000150</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>10000151</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>10000152</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>10000153</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>10000154</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>10000155</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>10000156</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>10000157</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>10000158</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>10000159</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>10000160</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>10000161</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>10000162</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>10000163</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>10000164</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>10000165</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>10000166</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>10000167</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>10000168</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>10000169</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>10000170</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>10000171</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>10000172</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>10000173</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>10000174</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>10000175</v>
+      </c>
+      <c r="C177" s="1">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>10000176</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>10000177</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>10000178</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>10000179</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>10000180</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>10000181</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>10000182</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>10000183</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>10000184</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>10000185</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>10000186</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>10000187</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>10000188</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>10000189</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>10000190</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>10000191</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>10000192</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>10000193</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>10000194</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>10000195</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>10000196</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>10000197</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>10000198</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>10000199</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>10000200</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>10000201</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0</v>
+      </c>
+      <c r="D203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>10000202</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>10000203</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>10000204</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>10000205</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>10000206</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>10000207</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0</v>
+      </c>
+      <c r="D209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>10000208</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>10000209</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>10000210</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>10000211</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>10000212</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>10000213</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>10000214</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+      <c r="D216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>10000215</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>10000216</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>10000217</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>10000218</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>10000219</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>10000220</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>10000221</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>10000222</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>10000223</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>10000224</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>10000225</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>10000226</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>10000227</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>10000228</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>10000229</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>10000230</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>10000231</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0</v>
+      </c>
+      <c r="D233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>10000232</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0</v>
+      </c>
+      <c r="D234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>10000233</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+      <c r="D235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>10000234</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0</v>
+      </c>
+      <c r="D236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>10000235</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+      <c r="D237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>10000236</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0</v>
+      </c>
+      <c r="D238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>10000237</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
+      <c r="D239" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/101_GlobalValue.xlsx
+++ b/TableOrigin/101_GlobalValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3378AAD-5FE4-4454-959B-4F6B76A9F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C0453D-0D67-4882-AF4B-9FB275DF5689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="1215" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>스테이지 시간 점수 증가 간격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 부활 후 무적시간(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 최소 스폰 간격(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 최대 스폰 간격(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +423,7 @@
   <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,11 +598,14 @@
       <c r="A13" s="1">
         <v>10000011</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -608,22 +623,28 @@
       <c r="A15" s="1">
         <v>10000013</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10000014</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
